--- a/src/notebooks/Здания для кластеризации.xlsx
+++ b/src/notebooks/Здания для кластеризации.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3608258020781858</v>
+        <v>0.5109678875782889</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3930992007818503</v>
+        <v>0.6530382756241714</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -463,31 +463,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4919140707314942</v>
+        <v>0.6595256705745555</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2965829284532655</v>
+        <v>0.3123625480981999</v>
       </c>
       <c r="B5" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3920022867519293</v>
+        <v>0.4330006203425408</v>
       </c>
       <c r="B6" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5118147386671779</v>
+        <v>0.1655285289263303</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2455804227564813</v>
+        <v>0.5262598831635411</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -503,31 +503,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3018437367227944</v>
+        <v>0.5837067901340377</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.5399898209761328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5907634224826153</v>
+        <v>0.5648045772902787</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5741223337376162</v>
+        <v>0.5703846314371382</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.8879822638367767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3811418696972377</v>
+        <v>0.5960402600341034</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -535,47 +535,47 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4031461724297729</v>
+        <v>0.4226807435347185</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5887297375360285</v>
+        <v>0.6156969202588592</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4695105719039869</v>
+        <v>0.431499864773437</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5725839156203067</v>
+        <v>0.2660009381823004</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.6586763586563867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5774002595819607</v>
+        <v>0.6415496475650836</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4093584393538645</v>
+        <v>0.3543840224966565</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2251002747987207</v>
+        <v>0.1815100337871972</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5110650666123551</v>
+        <v>0.5818406037833405</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4769880492872003</v>
+        <v>0.5508982778197377</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -607,15 +607,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4861404688882849</v>
+        <v>0.4157610894001081</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.244645245219169</v>
+        <v>0.5759059452618361</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8196007547565409</v>
+        <v>0.6553268629406254</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -631,15 +631,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4951989640983594</v>
+        <v>0.3497522128388461</v>
       </c>
       <c r="B25" t="n">
-        <v>0.100286907399354</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2116580613105079</v>
+        <v>0.4923784361018285</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -647,15 +647,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8813197075453929</v>
+        <v>0.5926306957424322</v>
       </c>
       <c r="B27" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4576578014186254</v>
+        <v>0.3461345368940228</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5122692435235616</v>
+        <v>0.534050217719937</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1855704639153951</v>
+        <v>0.188750756419323</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5138629229781018</v>
+        <v>0.4924150375174446</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -687,15 +687,15 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4799182324313616</v>
+        <v>0.4894616580945236</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4873456927685216</v>
+        <v>0.5260485205865498</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -703,15 +703,15 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3866825512180794</v>
+        <v>0.471963665283396</v>
       </c>
       <c r="B34" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3782778777926163</v>
+        <v>0.5337771641131394</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -719,39 +719,39 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2878186418512458</v>
+        <v>0.3722055563073513</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2266334684311135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5790741302785407</v>
+        <v>0.4887783070084962</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.489389968069883</v>
+        <v>0.3806976844178874</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.01331464887197187</v>
+        <v>0.4881290575629796</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4235075905698837</v>
+        <v>0.6471962561214525</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -759,31 +759,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5385201693974739</v>
+        <v>0.4815735487202105</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1714416005739134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5637093961517676</v>
+        <v>0.5888475923031372</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1351801695061328</v>
+        <v>0.3869361918491468</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3483109136108211</v>
+        <v>0.4833118282542476</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -791,39 +791,39 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.5124365711418828</v>
+        <v>0.5950873291408917</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3098558206426962</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5788095946740766</v>
+        <v>0.5588222828550334</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1812144693491576</v>
+        <v>0.6146758842727195</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4735571153560465</v>
+        <v>0.4157604923371013</v>
       </c>
       <c r="B48" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5602850731055589</v>
+        <v>0.6256792783830659</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5667804106456664</v>
+        <v>0.5174523346851462</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -839,23 +839,23 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6592467814858274</v>
+        <v>0.4766723571451833</v>
       </c>
       <c r="B51" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.5548619728839286</v>
+        <v>0.2987333063210401</v>
       </c>
       <c r="B52" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4262370233618551</v>
+        <v>0.3550278681324232</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7888282007415472</v>
+        <v>0.06971163075972131</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -871,23 +871,23 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7292339955626559</v>
+        <v>0.4410606201818653</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9500502426473776</v>
+        <v>0.594065568633117</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9323030582023097</v>
+        <v>0.6296660813951335</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3380680906592717</v>
+        <v>0.7732340648574095</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.207236399394289</v>
+        <v>0.5489744576693177</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5139217470755628</v>
+        <v>0.3237871609175572</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -919,15 +919,15 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1655353066456415</v>
+        <v>0.4171271015349297</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.3505006830262645</v>
+        <v>0.4958697848541761</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -935,31 +935,31 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4776163258983288</v>
+        <v>0.6062068689625667</v>
       </c>
       <c r="B63" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.3935554588091223</v>
+        <v>0.4074671717089401</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4035724033450336</v>
+        <v>0.3884404186509759</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4973358756730895</v>
+        <v>0.471414691915942</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -967,15 +967,15 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2566996181890693</v>
+        <v>0.6576455298724372</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9310809495243995</v>
+        <v>0.4862667947940834</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -983,31 +983,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4737233158358849</v>
+        <v>0.5967228621134207</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4696726337494184</v>
+        <v>0.6386403810438218</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4983619764043811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3922669861102603</v>
+        <v>0.6324662526062098</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8010480791897081</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3889493233508019</v>
+        <v>0.5651983786474625</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.317151265155037</v>
+        <v>0.6221016288450633</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1023,23 +1023,23 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3404571617731729</v>
+        <v>0.2580644794980543</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.2524938067005151</v>
+        <v>0.3827481153341062</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5043122591603804</v>
+        <v>0.5383622507909328</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4483057497949807</v>
+        <v>0.6628046509834412</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5753141819498593</v>
+        <v>0.38340202150018</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1063,39 +1063,39 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8385498330702845</v>
+        <v>0.5328465394965517</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4493094334560224</v>
+        <v>0.6582595010938567</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3500008711817602</v>
+        <v>0.4371935260655045</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3469733230537191</v>
+        <v>0.1947156519109804</v>
       </c>
       <c r="B82" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9227479444838704</v>
+        <v>0.931718028047165</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1103,15 +1103,15 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.5764611075215798</v>
+        <v>0.601025462914243</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3098558206426962</v>
+        <v>0.5399898209761328</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2532421355561321</v>
+        <v>0.4476605410749276</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3332354655086509</v>
+        <v>0.4161242417436698</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3650162791877141</v>
+        <v>0.1609592376702408</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.2515709326411213</v>
+        <v>0.4751677234711057</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1143,15 +1143,15 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6533128512155113</v>
+        <v>0.5985543320147667</v>
       </c>
       <c r="B89" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3031224975065143</v>
+        <v>0.1932543889194852</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1159,23 +1159,23 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4952623281022324</v>
+        <v>0.6863714556020309</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5293195712164407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7838625436808677</v>
+        <v>0.640188925259434</v>
       </c>
       <c r="B92" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6642334412501374</v>
+        <v>0.7576427573594572</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1183,15 +1183,15 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.202378140501378</v>
+        <v>0.4494205812819324</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.174003376997968</v>
+        <v>0.3830602355865954</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1199,15 +1199,15 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.5134338156289655</v>
+        <v>0.8188943476904974</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3952894333671806</v>
+        <v>0.535319436185984</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1215,55 +1215,55 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4861951660862049</v>
+        <v>0.3448645683538388</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1982552936298076</v>
+        <v>0.443542533046147</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.331122949065874</v>
+        <v>0.629323807035081</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2266334684311135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9396765407607264</v>
+        <v>0.8908074241045768</v>
       </c>
       <c r="B101" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7027526437317946</v>
+        <v>0.7884995500170225</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4660292055722988</v>
+        <v>0.501174222561643</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.1093716908507192</v>
+        <v>0.1829209843837994</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1271,15 +1271,15 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.6893921261717915</v>
+        <v>0.1741482440280585</v>
       </c>
       <c r="B105" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4245905561329</v>
+        <v>0.1746012951777675</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1287,23 +1287,23 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7338565859840602</v>
+        <v>0.2365869410156775</v>
       </c>
       <c r="B107" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.3810847037177871</v>
+        <v>0.4252399525632377</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7490849352506095</v>
+        <v>0.01386844075342986</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1311,47 +1311,47 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.5617545065412171</v>
+        <v>0.6257134155974798</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6060565217367426</v>
+        <v>0.770996745463396</v>
       </c>
       <c r="B111" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6150804417530875</v>
+        <v>0.4931519532568037</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2717285079732675</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.3210361279359046</v>
+        <v>0.7603408936133614</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2266334684311135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.3670153571776409</v>
+        <v>0.7324193527820489</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.5675512290794396</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.3452687119740707</v>
+        <v>0.4500427833706132</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -1359,47 +1359,47 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3624184307760099</v>
+        <v>0.5359932978689576</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3098558206426962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.5798678006646101</v>
+        <v>0.7380262426518566</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1714416005739134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.6578706864186934</v>
+        <v>0.5310482431123239</v>
       </c>
       <c r="B118" t="n">
-        <v>0.100286907399354</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6537002624047332</v>
+        <v>0.7365491969354886</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.6315085890408152</v>
+        <v>0.5636178550489682</v>
       </c>
       <c r="B120" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6008150376166679</v>
+        <v>0.5405141285855345</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.7996924584996126</v>
+        <v>0.7495143238633625</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1415,15 +1415,15 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4019311266506125</v>
+        <v>0.6912667711876755</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.5929052667720847</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.5792992212879085</v>
+        <v>0.2986821212226211</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.2483977173607732</v>
+        <v>0.508679199973849</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4720596506555497</v>
+        <v>0.4757518678572753</v>
       </c>
       <c r="B126" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8681598371376216</v>
+        <v>0.2567310436410278</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.3242088219769546</v>
+        <v>0.4195611058547265</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1463,47 +1463,47 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6261882789941198</v>
+        <v>0.5023240471568412</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4564368609402603</v>
+        <v>0.5901456168621652</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8638328688339914</v>
+        <v>0.6363807674492542</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1753000727904113</v>
+        <v>0.6396879779582713</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.7448130958141774</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.859878864113885</v>
+        <v>0.5739133198869936</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3817821571336779</v>
+        <v>0.8108829154056386</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1511,15 +1511,15 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4518287868134379</v>
+        <v>0.5187344470381848</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4029969960294983</v>
+        <v>0.8167544046594929</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1527,159 +1527,159 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2064800108031117</v>
+        <v>0.6691042240845048</v>
       </c>
       <c r="B137" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.2939016412094098</v>
+        <v>0.5716228383089311</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.3743506369012417</v>
+        <v>0.7134210043643449</v>
       </c>
       <c r="B139" t="n">
-        <v>0.100286907399354</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.2325349950039992</v>
+        <v>0.6407620648107085</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8863353972897154</v>
+        <v>0.6326179318628059</v>
       </c>
       <c r="B141" t="n">
-        <v>0.100286907399354</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.2924141756912955</v>
+        <v>0.5448575305290547</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8296496334933769</v>
+        <v>0.4073905443174565</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.4607538208468633</v>
+        <v>0.3861942940315416</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.2022101366614599</v>
+        <v>0.532852966566138</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>0.9931877724573985</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.725320367154408</v>
+        <v>0.321002574088134</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.3780722268533012</v>
+        <v>0.426030424567989</v>
       </c>
       <c r="B147" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4110548465422044</v>
+        <v>0.3560702913614128</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3098558206426962</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.5038710270776896</v>
+        <v>0.7350963141040582</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2266334684311135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6689933756710853</v>
+        <v>0.06714799953537287</v>
       </c>
       <c r="B150" t="n">
-        <v>0.2266334684311135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.335184034839445</v>
+        <v>0.6361764765879291</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.3195708129549584</v>
+        <v>0.595345393069144</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.3062480474402811</v>
+        <v>0.4396566613927854</v>
       </c>
       <c r="B153" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.3173703296746107</v>
+        <v>0.5212003404620228</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2717285079732675</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.3532661129431018</v>
+        <v>0.4940002458183123</v>
       </c>
       <c r="B155" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.4540509725270383</v>
+        <v>0.5866841548618588</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -1687,79 +1687,79 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6031089563570948</v>
+        <v>0.3398910759199617</v>
       </c>
       <c r="B157" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.5576025095521799</v>
+        <v>0.3600412583013147</v>
       </c>
       <c r="B158" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.6258469298370917</v>
+        <v>0.8204157345328155</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.5691224283755345</v>
+        <v>0.3799187188996554</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2717285079732675</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1406125167053994</v>
+        <v>0.594793946211173</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.5504505015849874</v>
+        <v>0.4923473389781142</v>
       </c>
       <c r="B162" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.4061221296483832</v>
+        <v>0.6172963839887892</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4801524225163019</v>
+        <v>0.168755511238028</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.4293602573611217</v>
+        <v>0.5219931405404027</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.6671643828932499</v>
+        <v>0.6034742675589072</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.8613476772802027</v>
+        <v>0.7567122401951266</v>
       </c>
       <c r="B167" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.6233247360417218</v>
+        <v>0.4166847842069813</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2717285079732675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.4872712679843467</v>
+        <v>0.8744856848225785</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.5354142117887144</v>
+        <v>0.5888183649346407</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4409217530627834</v>
+        <v>0.4624935687633348</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -1807,55 +1807,55 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.5481250597639167</v>
+        <v>0.4313895027922537</v>
       </c>
       <c r="B172" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.5423300491558065</v>
+        <v>0.5773578677421952</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5815843286159638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.5895829130157613</v>
+        <v>0.2291623070885543</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.6812026809010621</v>
+        <v>0.3039367227778028</v>
       </c>
       <c r="B175" t="n">
-        <v>0.100286907399354</v>
+        <v>0.5675512290794396</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2391915402555749</v>
+        <v>0.8902887249943198</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.3674809506627177</v>
+        <v>0.8338819429116121</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2603357820636352</v>
+        <v>0.4544078693417982</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -1863,15 +1863,15 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.234769547321783</v>
+        <v>0.5380814891599423</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4468117255574227</v>
+        <v>0.3554007827269098</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -1879,15 +1879,15 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7405216878608172</v>
+        <v>0.5468715203122442</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.7342422899919194</v>
+        <v>0.789419078550417</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -1895,31 +1895,31 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4291498860190412</v>
+        <v>0.6131005759555629</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.3855107301405882</v>
+        <v>0.7319192120638579</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.673224240695679</v>
+        <v>0.678212996710675</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2947887932352413</v>
+        <v>0.1567854972000727</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -1927,103 +1927,103 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.3791540949549981</v>
+        <v>0.5687067693897062</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.7131110225783045</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1261623991318281</v>
+        <v>0.6732058172623433</v>
       </c>
       <c r="B188" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.1465113774584547</v>
+        <v>0.608639400930678</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.3351898717788675</v>
+        <v>0.8490036873518082</v>
       </c>
       <c r="B190" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.0461676953648138</v>
+        <v>0.5690829944678871</v>
       </c>
       <c r="B191" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.4697595823621215</v>
+        <v>0.8085787320284047</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.5128735205735313</v>
+        <v>0.4098724790877256</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.2035762218271873</v>
+        <v>0.5018475670921442</v>
       </c>
       <c r="B194" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.4566210164106408</v>
+        <v>0.9003918201460998</v>
       </c>
       <c r="B195" t="n">
-        <v>0.100286907399354</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.4898561563400217</v>
+        <v>0.6918862447068456</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0.5929052667720847</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7764927581865282</v>
+        <v>0.3795395239883178</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1714416005739134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.630860884418035</v>
+        <v>0.7615888925711481</v>
       </c>
       <c r="B198" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.3886394579249053</v>
+        <v>0.4467589738909484</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.6058672325721455</v>
+        <v>0.6077565318500794</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.4396528176261956</v>
+        <v>0.5090708851019911</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7862423963239475</v>
+        <v>0.7299775046156555</v>
       </c>
       <c r="B202" t="n">
-        <v>0.100286907399354</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.5600359494868747</v>
+        <v>0.6626371049708905</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.07202324881389932</v>
+        <v>0.3848126245213163</v>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -2071,23 +2071,23 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.498224542193852</v>
+        <v>0.2480801309063553</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6040851014677636</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7334927896607188</v>
+        <v>0.5401342742957732</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7267799081204245</v>
+        <v>0.3016539266693913</v>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.613992876828332</v>
+        <v>0.07168525307189266</v>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -2103,15 +2103,15 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.4360982481209197</v>
+        <v>0.6657801741246833</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6698035769782945</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.1930312013036954</v>
+        <v>0.7648005057727537</v>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -2119,15 +2119,15 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.9109293349134513</v>
+        <v>0.4377850834025095</v>
       </c>
       <c r="B211" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.3120937362985794</v>
+        <v>0.7877465666393783</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2135,15 +2135,15 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.2878194986924041</v>
+        <v>0.6122114801703885</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.3272080880337394</v>
+        <v>0.5516668282307108</v>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -2151,103 +2151,103 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.3916688030438353</v>
+        <v>0.5565243651293094</v>
       </c>
       <c r="B215" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.4748945299382608</v>
+        <v>0.5623953486251269</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3098558206426962</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.3529129339697152</v>
+        <v>0.4651227535701002</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5434570159465349</v>
+        <v>0.7293585004195853</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7116553605958647</v>
+        <v>0.68019619737222</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.3040977880202715</v>
+        <v>0.5989026915156225</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.6193135535207295</v>
+        <v>0.356265598375039</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.4585933311038117</v>
+        <v>0.2260430593995654</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5143248017217403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.2865855009525213</v>
+        <v>0.5177629911951326</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.5915475748755192</v>
+        <v>0.3935427217395971</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>0.7595486071949284</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.6407083391453081</v>
+        <v>0.3872813936739984</v>
       </c>
       <c r="B224" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.1973415596478509</v>
+        <v>0.8092750753871726</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.3914945145772859</v>
+        <v>0.6019462541869985</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.3686513004202001</v>
+        <v>0.4485156461160394</v>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -2255,15 +2255,15 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.3552927297671447</v>
+        <v>0.6269213847986576</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.429311108848361</v>
+        <v>0.5246995296092009</v>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -2271,15 +2271,15 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.5362433991034334</v>
+        <v>0.7201367186286226</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.7705480057950014</v>
+        <v>0.6707986154041871</v>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -2287,63 +2287,63 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.3126025690684051</v>
+        <v>0</v>
       </c>
       <c r="B232" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7187127922266929</v>
+        <v>0.523272508704821</v>
       </c>
       <c r="B233" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7439525320250855</v>
+        <v>0.4334663329673997</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3428832011478269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.4058086851631866</v>
+        <v>0.3602604125515395</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.368723779324027</v>
+        <v>0.8185297134047486</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.237342551942086</v>
+        <v>0.6419249730240021</v>
       </c>
       <c r="B237" t="n">
-        <v>0.100286907399354</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.3151944567503995</v>
+        <v>0.6553080470087987</v>
       </c>
       <c r="B238" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7008032142579999</v>
+        <v>0.7151315578154759</v>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7026423108588666</v>
+        <v>0.6133647176422817</v>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.3608258020781858</v>
+        <v>0.2805775405487815</v>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -2367,15 +2367,15 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.4500587843403381</v>
+        <v>0.07638038522016977</v>
       </c>
       <c r="B242" t="n">
-        <v>0.421648893201269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.281694739279613</v>
+        <v>0.4489339885612985</v>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -2383,23 +2383,23 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.6222154437774563</v>
+        <v>0.6051911398846698</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>0.3968206529535334</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.3777154666619673</v>
+        <v>0.6488424394114157</v>
       </c>
       <c r="B245" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.3557606029797336</v>
+        <v>0.8824976563657968</v>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -2407,31 +2407,31 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.184732609549159</v>
+        <v>0.6209392455376092</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.4160058414089354</v>
+        <v>0.4453477714714472</v>
       </c>
       <c r="B248" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.3379995330761301</v>
+        <v>0.8002082936220857</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1714416005739134</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.2267661843700599</v>
+        <v>0.1567854972000727</v>
       </c>
       <c r="B250" t="n">
         <v>0</v>
@@ -2439,15 +2439,15 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8308341037204494</v>
+        <v>0.7587125007440835</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.6619847530119376</v>
+        <v>0.3183840055838351</v>
       </c>
       <c r="B252" t="n">
         <v>0</v>
@@ -2455,47 +2455,47 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.2700881348732496</v>
+        <v>0.5670298036059697</v>
       </c>
       <c r="B253" t="n">
-        <v>0.100286907399354</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.2934831316921309</v>
+        <v>0.5802121205173952</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>0.5097997142007897</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.4318926368620695</v>
+        <v>0.6193876678898372</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.3984819042147107</v>
+        <v>0.4403588751771738</v>
       </c>
       <c r="B256" t="n">
-        <v>0.100286907399354</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.4508256074197114</v>
+        <v>0.4580623877197866</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.3859140552978322</v>
+        <v>0.5516551195306189</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -2503,15 +2503,15 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.3914603749921348</v>
+        <v>0.5466031002615505</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.6667120288700128</v>
+        <v>0.5481961155725362</v>
       </c>
       <c r="B260" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.5853538131502709</v>
+        <v>0.5313387708391956</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
@@ -2527,15 +2527,15 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.2587947883914155</v>
+        <v>0.3380286070129376</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.1655353066456415</v>
+        <v>0.6358106019382636</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2543,23 +2543,23 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7284000767911301</v>
+        <v>0.6136056012065475</v>
       </c>
       <c r="B264" t="n">
-        <v>0.100286907399354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.291740489519873</v>
+        <v>0.6451976938788569</v>
       </c>
       <c r="B265" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.4194760067861354</v>
+        <v>0.7399053129309784</v>
       </c>
       <c r="B266" t="n">
         <v>0</v>
@@ -2567,39 +2567,39 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.3421034805561718</v>
+        <v>0.6088943056532655</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>0.2902409279819941</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.3731998598505248</v>
+        <v>0.5594245834410373</v>
       </c>
       <c r="B268" t="n">
-        <v>0.2266334684311135</v>
+        <v>0.4391175724375911</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.3323287420584882</v>
+        <v>0.7497281795266596</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>0.4764260995024925</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1894463697643517</v>
+        <v>0.6681776803223395</v>
       </c>
       <c r="B270" t="n">
-        <v>0.100286907399354</v>
+        <v>0.6382333708426381</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.6718750921444454</v>
+        <v>0.01539396100152068</v>
       </c>
       <c r="B271" t="n">
         <v>0</v>
@@ -2607,15 +2607,15 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.6091234738992866</v>
+        <v>0.4801739235050339</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>0.2195587862187956</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.4923546418322862</v>
+        <v>0.5903377483786102</v>
       </c>
       <c r="B273" t="n">
         <v>0</v>
@@ -2623,31 +2623,31 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.5959861429717837</v>
+        <v>1</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.5509114948680272</v>
+        <v>0.8250424004132789</v>
       </c>
       <c r="B275" t="n">
-        <v>0.100286907399354</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.3201460426019103</v>
+        <v>0.8346629189329294</v>
       </c>
       <c r="B276" t="n">
-        <v>0.443170108547181</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.2630947363305527</v>
+        <v>0.3684297152112047</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
@@ -2655,63 +2655,63 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.8621242287913462</v>
+        <v>0.8702882151050494</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.5946113251933804</v>
+        <v>0.5853928175855062</v>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>0.347992442860644</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.406328308286269</v>
+        <v>0.1512927661693971</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1714416005739134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.4940984905654739</v>
+        <v>0.6278280560182253</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.9026816318604258</v>
+        <v>0.517413601669669</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.3879248603555852</v>
+        <v>0.5663154997653758</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>0.6959848857212879</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.6448763950997398</v>
+        <v>0.3562277191916753</v>
       </c>
       <c r="B284" t="n">
-        <v>0.100286907399354</v>
+        <v>0.1284336566418484</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7362688707922878</v>
+        <v>0.6131123042581795</v>
       </c>
       <c r="B285" t="n">
         <v>0</v>
@@ -2719,833 +2719,17 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.6687504344470305</v>
+        <v>0.7229294846521955</v>
       </c>
       <c r="B286" t="n">
-        <v>0.100286907399354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.5634810490392614</v>
+        <v>0.5536443226456859</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2266334684311135</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>0.3368892353255442</v>
-      </c>
-      <c r="B288" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>0.2373054058028496</v>
-      </c>
-      <c r="B289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>0.5563700245124235</v>
-      </c>
-      <c r="B290" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>0.4619305590971476</v>
-      </c>
-      <c r="B291" t="n">
-        <v>0.3980750690050271</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>0.3054114800708612</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.7530259291898772</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>0.2947598702289391</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>1</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>0.3028049668549782</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>0.7559604734910104</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>0.4596965392164454</v>
-      </c>
-      <c r="B297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>0.3423592882508935</v>
-      </c>
-      <c r="B298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>0.2857956450442989</v>
-      </c>
-      <c r="B299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>0.3727557185555279</v>
-      </c>
-      <c r="B300" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>0.272441322019072</v>
-      </c>
-      <c r="B301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>0.4566034424392127</v>
-      </c>
-      <c r="B302" t="n">
-        <v>0.2266334684311135</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>0.3367171943721223</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>0.5291034009981106</v>
-      </c>
-      <c r="B304" t="n">
-        <v>0.3428832011478269</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>0.3715443664676756</v>
-      </c>
-      <c r="B305" t="n">
-        <v>0.2266334684311135</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>0.5738584494021877</v>
-      </c>
-      <c r="B306" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>0.1216051075815419</v>
-      </c>
-      <c r="B307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>0.0354436809287042</v>
-      </c>
-      <c r="B308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>0.08987270984997298</v>
-      </c>
-      <c r="B309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>0.1808794827855195</v>
-      </c>
-      <c r="B310" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>0.02822396093138313</v>
-      </c>
-      <c r="B311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>0.02384065370108124</v>
-      </c>
-      <c r="B312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>0.4732807942767141</v>
-      </c>
-      <c r="B313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>0.3392700375049165</v>
-      </c>
-      <c r="B314" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>0.1342054729044702</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>0.2701636858267078</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>0.08602226473192764</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>0.2972618341377822</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>0.1461315028408853</v>
-      </c>
-      <c r="B319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>0.09975579257353118</v>
-      </c>
-      <c r="B320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>0.3149096190542249</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>0.204576744963739</v>
-      </c>
-      <c r="B322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>0.135553680882325</v>
-      </c>
-      <c r="B323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>0.5755435326662657</v>
-      </c>
-      <c r="B324" t="n">
-        <v>0.3980750690050271</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>0.6164691487364167</v>
-      </c>
-      <c r="B325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>0.6249348421339871</v>
-      </c>
-      <c r="B326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>0.5127407377488615</v>
-      </c>
-      <c r="B327" t="n">
-        <v>0.2266334684311135</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>0.6197253065894495</v>
-      </c>
-      <c r="B328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>0.7461259025055182</v>
-      </c>
-      <c r="B329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>0.5166494305981744</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>0.4172007258098738</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>0.3091156420614634</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>0.3233843534013605</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>0.2689936369430905</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>0.1998624471669892</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>0.3676960818345927</v>
-      </c>
-      <c r="B336" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>0.3466779381558798</v>
-      </c>
-      <c r="B337" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>0.3699556553140775</v>
-      </c>
-      <c r="B338" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>0.1281192752638444</v>
-      </c>
-      <c r="B339" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>0.5393179277156197</v>
-      </c>
-      <c r="B340" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>0.2498019749643994</v>
-      </c>
-      <c r="B341" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>0.3121914008436737</v>
-      </c>
-      <c r="B342" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>0.2372553679008214</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>0.1519893823868149</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>0.1903517695985151</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>0.09080257685187443</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>0.5652875038092284</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0.3980750690050271</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>0.4881714492425151</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>0.3081912148967212</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>0.6456649172626749</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>0.4560965724676933</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>0.3216691265622944</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>0.2644687741776195</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>0.7715089812678884</v>
-      </c>
-      <c r="B354" t="n">
-        <v>0.1714416005739134</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>0.6250512656250105</v>
-      </c>
-      <c r="B355" t="n">
-        <v>0.3980750690050271</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>0.4504796920813594</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>0.1621429553884923</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>0.4169356161286781</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>0.7518714254375278</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.1714416005739134</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>0.2147456252080628</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>0.1983458285211188</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>0.8477430513294304</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>0.3048169687038729</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>0.1456202897693961</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>0.2182218791471702</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>0.1556092788489976</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>0.3160911679550409</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>0.2174159258301847</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>0.4791668577570838</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0.100286907399354</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>0.1512960003568672</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>0.3900577332550015</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>0.05428147428261598</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>0.4014781830148881</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>0.3685932027361214</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>0.3912921841712689</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>0.3383742811137431</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>0.570926239912743</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.443170108547181</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>0.5539201052322451</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>0.2804033147359959</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>0.3462469956571974</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>0.4870198598335107</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0.2266334684311135</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>0.6522526458450144</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>0</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>0.3701957095907555</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0.4812974212166097</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>0.106282888058851</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>0.4092313997202217</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>0.4280068917123498</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0.2717285079732675</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>0.556443454817559</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>0.3154999957203428</v>
-      </c>
-      <c r="B389" t="n">
         <v>0</v>
       </c>
     </row>
